--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,82; 34,56</t>
+          <t>28,93; 34,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 41,56</t>
+          <t>34,98; 41,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 39,88</t>
+          <t>33,07; 40,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 23,27</t>
+          <t>16,6; 23,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,09; 37,36</t>
+          <t>31,78; 37,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,65; 42,39</t>
+          <t>36,95; 42,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,03; 37,43</t>
+          <t>30,98; 37,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,1</t>
+          <t>15,83; 20,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 35,02</t>
+          <t>31,2; 35,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,88; 41,26</t>
+          <t>37,06; 41,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,65; 37,45</t>
+          <t>32,96; 37,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,51</t>
+          <t>16,71; 20,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 29,59</t>
+          <t>25,28; 29,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,12; 41,59</t>
+          <t>37,08; 41,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 36,73</t>
+          <t>32,73; 37,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,47</t>
+          <t>14,43; 18,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,45; 37,29</t>
+          <t>32,36; 37,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 41,59</t>
+          <t>36,57; 41,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,38; 38,77</t>
+          <t>34,5; 38,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 38,76</t>
+          <t>18,89; 36,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 32,46</t>
+          <t>29,23; 32,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,57; 40,94</t>
+          <t>37,71; 40,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,2; 37,33</t>
+          <t>34,0; 37,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 28,38</t>
+          <t>17,59; 29,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 36,78</t>
+          <t>28,51; 36,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,31; 49,03</t>
+          <t>39,01; 48,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,12; 44,92</t>
+          <t>36,01; 45,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,24</t>
+          <t>19,29; 26,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,99; 37,69</t>
+          <t>29,02; 37,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,98; 48,33</t>
+          <t>38,5; 48,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,23; 45,12</t>
+          <t>37,04; 45,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 26,91</t>
+          <t>21,18; 27,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 35,92</t>
+          <t>29,8; 36,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,36; 46,96</t>
+          <t>40,39; 47,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,79; 43,54</t>
+          <t>37,48; 43,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 25,69</t>
+          <t>21,14; 25,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,09; 31,18</t>
+          <t>27,79; 31,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,97; 41,49</t>
+          <t>37,91; 41,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,36; 37,72</t>
+          <t>34,37; 37,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 19,72</t>
+          <t>16,71; 19,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 36,13</t>
+          <t>32,7; 36,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,17; 41,56</t>
+          <t>38,28; 41,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,18; 38,37</t>
+          <t>34,91; 38,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,06</t>
+          <t>19,7; 32,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,17</t>
+          <t>30,83; 33,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,59; 41,08</t>
+          <t>38,51; 41,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,23; 37,55</t>
+          <t>35,27; 37,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 25,47</t>
+          <t>18,82; 25,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,59</t>
+          <t>28,82; 34,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,98; 41,44</t>
+          <t>34,98; 41,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,07; 40,13</t>
+          <t>33,1; 39,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,78; 37,02</t>
+          <t>31,89; 36,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,95; 42,35</t>
+          <t>36,89; 42,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,98; 37,26</t>
+          <t>30,89; 37,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,2; 35,0</t>
+          <t>31,13; 35,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,06; 41,24</t>
+          <t>36,95; 41,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,96; 37,42</t>
+          <t>33,03; 37,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 29,74</t>
+          <t>25,13; 29,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,08; 41,84</t>
+          <t>37,12; 41,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,73; 37,1</t>
+          <t>32,81; 36,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,36; 37,03</t>
+          <t>32,16; 37,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,57; 41,47</t>
+          <t>36,78; 41,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,5; 38,7</t>
+          <t>34,3; 38,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 32,6</t>
+          <t>29,47; 32,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,71; 40,9</t>
+          <t>37,68; 40,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,0; 37,03</t>
+          <t>34,22; 37,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,51; 36,8</t>
+          <t>27,86; 36,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,01; 48,86</t>
+          <t>38,66; 48,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 45,16</t>
+          <t>35,53; 44,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 37,5</t>
+          <t>29,05; 37,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,5; 48,67</t>
+          <t>38,81; 48,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,39</t>
+          <t>37,01; 45,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 36,03</t>
+          <t>30,0; 35,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,39; 47,07</t>
+          <t>39,93; 47,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,48; 43,9</t>
+          <t>37,34; 43,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,79; 31,0</t>
+          <t>27,96; 31,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 41,44</t>
+          <t>37,94; 41,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,69</t>
+          <t>34,39; 37,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,06</t>
+          <t>32,8; 36,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,28; 41,44</t>
+          <t>38,15; 41,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 38,36</t>
+          <t>34,79; 38,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 33,15</t>
+          <t>30,85; 33,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,51; 41,01</t>
+          <t>38,59; 40,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 37,48</t>
+          <t>35,1; 37,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,82; 34,45</t>
+          <t>28,82; 34,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,98; 41,4</t>
+          <t>35,05; 41,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,1; 39,64</t>
+          <t>32,83; 39,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 23,18</t>
+          <t>16,81; 23,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,89; 36,76</t>
+          <t>32,09; 37,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 42,4</t>
+          <t>36,65; 42,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,89; 37,36</t>
+          <t>31,03; 37,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,83; 20,2</t>
+          <t>15,79; 20,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 35,2</t>
+          <t>31,14; 35,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,95; 41,2</t>
+          <t>36,88; 41,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,03; 37,66</t>
+          <t>32,65; 37,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 20,46</t>
+          <t>16,76; 20,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 29,5</t>
+          <t>25,19; 29,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,12; 41,63</t>
+          <t>37,12; 41,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,81; 36,96</t>
+          <t>32,33; 36,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,24</t>
+          <t>14,47; 18,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 37,21</t>
+          <t>32,45; 37,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,78; 41,57</t>
+          <t>36,73; 41,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,3; 38,7</t>
+          <t>34,38; 38,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 36,06</t>
+          <t>19,06; 38,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 32,6</t>
+          <t>29,21; 32,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,68; 40,88</t>
+          <t>37,57; 40,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,22; 37,22</t>
+          <t>34,2; 37,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 29,06</t>
+          <t>17,55; 28,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,86; 36,42</t>
+          <t>28,79; 36,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,66; 48,63</t>
+          <t>39,31; 49,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,53; 44,21</t>
+          <t>36,12; 44,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,29; 26,75</t>
+          <t>19,16; 26,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 37,62</t>
+          <t>28,99; 37,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,81; 48,71</t>
+          <t>38,98; 48,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,01; 45,74</t>
+          <t>37,23; 45,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,18; 27,36</t>
+          <t>21,07; 26,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 35,73</t>
+          <t>29,77; 35,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,93; 47,15</t>
+          <t>40,36; 46,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,34; 43,47</t>
+          <t>37,79; 43,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,14; 25,7</t>
+          <t>21,04; 25,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 31,08</t>
+          <t>28,09; 31,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,94; 41,44</t>
+          <t>37,97; 41,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,39; 37,69</t>
+          <t>34,36; 37,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,82</t>
+          <t>16,6; 19,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,06</t>
+          <t>32,88; 36,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,15; 41,55</t>
+          <t>38,17; 41,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,79; 38,3</t>
+          <t>35,18; 38,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 32,67</t>
+          <t>19,59; 31,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,85; 33,16</t>
+          <t>30,77; 33,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,59; 40,97</t>
+          <t>38,59; 41,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,1; 37,58</t>
+          <t>35,23; 37,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,09</t>
+          <t>18,78; 25,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 23,27</t>
+          <t>16,75; 23,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,1</t>
+          <t>15,74; 19,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,51</t>
+          <t>16,7; 20,46</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,47</t>
+          <t>10,77; 17,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 38,76</t>
+          <t>17,99; 50,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 28,38</t>
+          <t>15,93; 32,94</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,24</t>
+          <t>19,43; 27,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 26,91</t>
+          <t>20,87; 26,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 25,69</t>
+          <t>20,98; 26,01</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,63%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 19,72</t>
+          <t>13,54; 19,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,06</t>
+          <t>18,93; 39,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 25,47</t>
+          <t>17,61; 29,65</t>
         </is>
       </c>
     </row>
